--- a/gapminder.xlsx
+++ b/gapminder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\DS\225381\Lab 65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07FB0D-FB07-444A-A267-F45BDB175A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA9B9D-0A30-4C4A-BBC7-4735EE7F3E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="154">
   <si>
     <t>country</t>
   </si>
@@ -480,6 +480,9 @@
   <si>
     <t>Zimbabwe</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
@@ -843,11 +846,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1705"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
